--- a/biology/Botanique/Rajka_(pomme)/Rajka_(pomme).xlsx
+++ b/biology/Botanique/Rajka_(pomme)/Rajka_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rajka est le nom d'un cultivar de pommier domestique et par extension celui de sa pomme.
 </t>
@@ -511,7 +523,9 @@
           <t>Droits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>RAJKA est une variété enregistrée par l'Union Européenne :
 numéro de référence : 8880
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peau : brossée rouge profond
 Calibre : gros, environ 90 millimètres
@@ -577,9 +593,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variété obtenue en 1983 en Europe (Station expérimentale de Střížovice, Tchéquie)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variété obtenue en 1983 en Europe (Station expérimentale de Střížovice, Tchéquie).
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cultivar Rajka résulte du croisement Sampion × Katka.
 </t>
@@ -639,7 +659,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde
 Groupe de pollinisation : D
@@ -672,10 +694,12 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Tavelure : cultivar génétiquement résistant aux races communes de tavelure du pommier.
-Feu bactérien : variété fortement sensible[2]</t>
+Feu bactérien : variété fortement sensible</t>
         </is>
       </c>
     </row>
@@ -703,7 +727,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar à vigueur moyenne.
 Production généreuse de lambourdes.
